--- a/data/kgs_001_ER47_20250617.xlsx
+++ b/data/kgs_001_ER47_20250617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmiliosRichards\Projects\Sales_Prompt_Pipeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C1884-913C-4870-95A7-E383E85DC84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D7CFA-C677-4C97-A119-9E15C0A6586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,58 +2717,58 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
         <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="Q2">
-        <v>49056131701788</v>
+        <v>4934125364700</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -2780,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="s">
         <v>50</v>
@@ -2807,60 +2807,66 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AF2">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>173</v>
+      </c>
+      <c r="P3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3">
+        <v>4968138752068</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
@@ -2872,13 +2878,13 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="W3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="X3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="b">
         <v>1</v>
@@ -2899,63 +2905,60 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AF3">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4">
-        <v>4953122434806</v>
+        <v>244</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
@@ -2967,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="W4" t="s">
         <v>50</v>
@@ -2976,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -2985,69 +2988,75 @@
         <v>50</v>
       </c>
       <c r="AB4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC4" t="b">
         <v>1</v>
       </c>
       <c r="AD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>5</v>
       </c>
       <c r="AF4">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>259</v>
+      </c>
+      <c r="P5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q5">
+        <v>4901734986619</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
@@ -3059,19 +3068,19 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="X5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="s">
         <v>50</v>
@@ -3086,66 +3095,63 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF5">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="N6" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="Q6">
-        <v>4970717501723</v>
+        <v>4932221097343</v>
       </c>
       <c r="R6" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
@@ -3157,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -3184,66 +3190,60 @@
         <v>1</v>
       </c>
       <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
         <v>5</v>
-      </c>
-      <c r="AF6">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="O7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7">
-        <v>4934125364700</v>
+        <v>290</v>
       </c>
       <c r="R7" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -3255,90 +3255,87 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>50</v>
       </c>
       <c r="AB7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC7" t="b">
         <v>1</v>
       </c>
       <c r="AD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="M8" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="N8" t="s">
         <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="R8" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
@@ -3350,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -3368,75 +3365,69 @@
         <v>50</v>
       </c>
       <c r="AB8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC8" t="b">
         <v>1</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF8">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>353</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>357</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>360</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
-      </c>
-      <c r="P9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9">
-        <v>4927356588932</v>
+        <v>361</v>
       </c>
       <c r="R9" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
@@ -3448,93 +3439,90 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="b">
         <v>1</v>
       </c>
       <c r="Z9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>50</v>
       </c>
       <c r="AB9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AF9">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>366</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="K10" t="s">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10">
-        <v>4968138752068</v>
+        <v>377</v>
       </c>
       <c r="R10" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
@@ -3546,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="W10" t="s">
         <v>49</v>
@@ -3555,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
@@ -3573,66 +3561,66 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>539</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>541</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>542</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>543</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>544</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>545</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>546</v>
       </c>
       <c r="K11" t="s">
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>547</v>
       </c>
       <c r="N11" t="s">
         <v>44</v>
       </c>
       <c r="O11" t="s">
-        <v>188</v>
+        <v>548</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>549</v>
       </c>
       <c r="Q11">
-        <v>4930202380920</v>
+        <v>4921115825773</v>
       </c>
       <c r="R11" t="s">
-        <v>190</v>
+        <v>550</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -3644,87 +3632,93 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>191</v>
+        <v>551</v>
       </c>
       <c r="W11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s">
         <v>49</v>
       </c>
-      <c r="X11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>67</v>
-      </c>
       <c r="AC11" t="b">
         <v>1</v>
       </c>
       <c r="AD11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>5</v>
       </c>
       <c r="AF11">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>566</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>567</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>568</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>569</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>570</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>571</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>572</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>573</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>574</v>
+      </c>
+      <c r="J12" t="s">
+        <v>575</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>201</v>
+        <v>576</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>577</v>
       </c>
       <c r="N12" t="s">
         <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>202</v>
+        <v>578</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>579</v>
+      </c>
+      <c r="Q12">
+        <v>437242214079</v>
       </c>
       <c r="R12" t="s">
-        <v>204</v>
+        <v>580</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -3736,93 +3730,87 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>114</v>
+        <v>581</v>
       </c>
       <c r="W12" t="s">
         <v>50</v>
       </c>
       <c r="X12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="b">
         <v>1</v>
       </c>
       <c r="Z12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="s">
         <v>50</v>
       </c>
       <c r="AB12" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AC12" t="b">
         <v>1</v>
       </c>
       <c r="AD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>5</v>
       </c>
       <c r="AF12">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>552</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>553</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>554</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>555</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>556</v>
       </c>
       <c r="F13" t="s">
-        <v>210</v>
+        <v>557</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>558</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="J13" t="s">
-        <v>213</v>
+        <v>560</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="L13" t="s">
-        <v>214</v>
+        <v>562</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>563</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>215</v>
-      </c>
-      <c r="P13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q13">
-        <v>4966749999150</v>
+        <v>564</v>
       </c>
       <c r="R13" t="s">
-        <v>217</v>
+        <v>565</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
@@ -3834,66 +3822,66 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>218</v>
+        <v>449</v>
       </c>
       <c r="W13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC13" t="b">
         <v>1</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF13">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>583</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>584</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>585</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>586</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>587</v>
       </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>588</v>
       </c>
       <c r="H14" t="s">
-        <v>226</v>
+        <v>589</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>590</v>
       </c>
       <c r="J14" t="s">
         <v>228</v>
@@ -3902,25 +3890,19 @@
         <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>591</v>
       </c>
       <c r="M14" t="s">
-        <v>230</v>
+        <v>592</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14">
-        <v>4934339179998</v>
+        <v>593</v>
       </c>
       <c r="R14" t="s">
-        <v>233</v>
+        <v>594</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -3938,10 +3920,10 @@
         <v>50</v>
       </c>
       <c r="X14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3950,7 +3932,7 @@
         <v>50</v>
       </c>
       <c r="AB14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="b">
         <v>1</v>
@@ -3959,60 +3941,57 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF14">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>596</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>597</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>598</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>599</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>600</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>601</v>
       </c>
       <c r="H15" t="s">
-        <v>241</v>
+        <v>602</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>242</v>
+        <v>603</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s">
-        <v>243</v>
+        <v>604</v>
       </c>
       <c r="M15" t="s">
-        <v>157</v>
+        <v>605</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>244</v>
+        <v>606</v>
       </c>
       <c r="R15" t="s">
-        <v>245</v>
+        <v>607</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
@@ -4024,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="W15" t="s">
         <v>50</v>
@@ -4042,75 +4021,72 @@
         <v>50</v>
       </c>
       <c r="AB15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC15" t="b">
         <v>1</v>
       </c>
       <c r="AD15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF15">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>608</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>609</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>610</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>611</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>612</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>613</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>614</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>615</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>256</v>
+        <v>616</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="L16" t="s">
-        <v>257</v>
+        <v>617</v>
       </c>
       <c r="M16" t="s">
-        <v>258</v>
+        <v>618</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>259</v>
+        <v>619</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q16">
-        <v>4901734986619</v>
+        <v>620</v>
       </c>
       <c r="R16" t="s">
-        <v>261</v>
+        <v>621</v>
       </c>
       <c r="S16" t="b">
         <v>1</v>
@@ -4122,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>262</v>
+        <v>581</v>
       </c>
       <c r="W16" t="s">
         <v>67</v>
@@ -4134,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="Z16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>50</v>
       </c>
       <c r="AB16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="b">
         <v>1</v>
@@ -4149,63 +4125,63 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>622</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>623</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>624</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>625</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>626</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>627</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>628</v>
       </c>
       <c r="H17" t="s">
-        <v>270</v>
+        <v>629</v>
       </c>
       <c r="I17" t="s">
-        <v>271</v>
+        <v>630</v>
       </c>
       <c r="J17" t="s">
-        <v>272</v>
+        <v>631</v>
       </c>
       <c r="K17" t="s">
         <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>273</v>
+        <v>632</v>
       </c>
       <c r="M17" t="s">
-        <v>274</v>
+        <v>633</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>634</v>
       </c>
       <c r="O17" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q17">
-        <v>4932221097343</v>
+        <v>635</v>
+      </c>
+      <c r="P17" t="s">
+        <v>636</v>
       </c>
       <c r="R17" t="s">
-        <v>276</v>
+        <v>637</v>
       </c>
       <c r="S17" t="b">
         <v>1</v>
@@ -4217,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>66</v>
+        <v>638</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -4235,7 +4211,7 @@
         <v>50</v>
       </c>
       <c r="AB17" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC17" t="b">
         <v>1</v>
@@ -4244,60 +4220,66 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF17">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>639</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>640</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>641</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>642</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>643</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>644</v>
       </c>
       <c r="G18" t="s">
-        <v>283</v>
+        <v>645</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>646</v>
       </c>
       <c r="I18" t="s">
-        <v>285</v>
+        <v>647</v>
       </c>
       <c r="J18" t="s">
-        <v>286</v>
+        <v>648</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>649</v>
       </c>
       <c r="L18" t="s">
-        <v>287</v>
+        <v>650</v>
       </c>
       <c r="M18" t="s">
-        <v>288</v>
+        <v>651</v>
       </c>
       <c r="N18" t="s">
         <v>289</v>
       </c>
       <c r="O18" t="s">
-        <v>290</v>
+        <v>652</v>
+      </c>
+      <c r="P18" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q18">
+        <v>4973170480</v>
       </c>
       <c r="R18" t="s">
-        <v>291</v>
+        <v>654</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
@@ -4309,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>191</v>
+        <v>655</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -4324,72 +4306,72 @@
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB18" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF18">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>671</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>672</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>674</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>675</v>
       </c>
       <c r="F19" t="s">
-        <v>297</v>
+        <v>676</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>677</v>
       </c>
       <c r="H19" t="s">
-        <v>299</v>
+        <v>678</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>679</v>
       </c>
       <c r="J19" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>302</v>
+        <v>680</v>
       </c>
       <c r="M19" t="s">
-        <v>228</v>
+        <v>681</v>
       </c>
       <c r="N19" t="s">
         <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>303</v>
+        <v>682</v>
       </c>
       <c r="R19" t="s">
-        <v>304</v>
+        <v>683</v>
       </c>
       <c r="S19" t="b">
         <v>1</v>
@@ -4401,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>305</v>
+        <v>551</v>
       </c>
       <c r="W19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4428,57 +4410,66 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF19">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>684</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>685</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>686</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>687</v>
       </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>688</v>
       </c>
       <c r="F20" t="s">
-        <v>311</v>
+        <v>689</v>
       </c>
       <c r="G20" t="s">
-        <v>312</v>
+        <v>690</v>
       </c>
       <c r="H20" t="s">
-        <v>313</v>
+        <v>691</v>
       </c>
       <c r="I20" t="s">
-        <v>314</v>
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>692</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>693</v>
       </c>
       <c r="L20" t="s">
-        <v>315</v>
+        <v>694</v>
       </c>
       <c r="M20" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="O20" t="s">
-        <v>317</v>
+        <v>695</v>
+      </c>
+      <c r="P20" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q20">
+        <v>496201503100</v>
       </c>
       <c r="R20" t="s">
-        <v>318</v>
+        <v>697</v>
       </c>
       <c r="S20" t="b">
         <v>1</v>
@@ -4490,10 +4481,10 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>114</v>
+        <v>698</v>
       </c>
       <c r="W20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X20" t="b">
         <v>1</v>
@@ -4508,69 +4499,66 @@
         <v>50</v>
       </c>
       <c r="AB20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AC20" t="b">
         <v>1</v>
       </c>
       <c r="AD20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF20">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>714</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>715</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>716</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>717</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>718</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>719</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
+        <v>720</v>
       </c>
       <c r="H21" t="s">
-        <v>326</v>
+        <v>721</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
-      </c>
-      <c r="J21" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s">
         <v>328</v>
       </c>
       <c r="L21" t="s">
-        <v>329</v>
+        <v>722</v>
       </c>
       <c r="M21" t="s">
-        <v>330</v>
+        <v>723</v>
       </c>
       <c r="N21" t="s">
         <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>331</v>
+        <v>724</v>
       </c>
       <c r="R21" t="s">
-        <v>332</v>
+        <v>725</v>
       </c>
       <c r="S21" t="b">
         <v>1</v>
@@ -4582,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>333</v>
+        <v>726</v>
       </c>
       <c r="W21" t="s">
         <v>50</v>
       </c>
       <c r="X21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="b">
         <v>1</v>
@@ -4600,7 +4588,7 @@
         <v>50</v>
       </c>
       <c r="AB21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC21" t="b">
         <v>1</v>
@@ -4609,60 +4597,60 @@
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF21">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>342</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O22" t="s">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="R22" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="S22" t="b">
         <v>1</v>
@@ -4674,10 +4662,10 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="W22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4698,63 +4686,69 @@
         <v>1</v>
       </c>
       <c r="AD22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF22">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>351</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s">
-        <v>356</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s">
-        <v>358</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="O23" t="s">
-        <v>361</v>
+        <v>111</v>
+      </c>
+      <c r="P23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23">
+        <v>4970717501723</v>
       </c>
       <c r="R23" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
@@ -4766,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="W23" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4787,69 +4781,69 @@
         <v>49</v>
       </c>
       <c r="AC23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AF23">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>372</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>373</v>
+        <v>139</v>
       </c>
       <c r="K24" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s">
         <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="P24" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
       <c r="R24" t="s">
-        <v>378</v>
+        <v>144</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
@@ -4861,16 +4855,16 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="W24" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -4885,66 +4879,69 @@
         <v>1</v>
       </c>
       <c r="AD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AF24">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>356</v>
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
       </c>
       <c r="K25" t="s">
         <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s">
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="P25" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="Q25">
-        <v>49030959993910</v>
+        <v>4930202380920</v>
       </c>
       <c r="R25" t="s">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -4956,10 +4953,10 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="W25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -4968,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="Z25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="s">
         <v>50</v>
@@ -4986,57 +4983,54 @@
         <v>5</v>
       </c>
       <c r="AF25">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="K26" t="s">
         <v>41</v>
       </c>
       <c r="L26" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="M26" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="N26" t="s">
         <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="R26" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
@@ -5051,10 +5045,10 @@
         <v>114</v>
       </c>
       <c r="W26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="b">
         <v>1</v>
@@ -5069,72 +5063,66 @@
         <v>67</v>
       </c>
       <c r="AC26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="E27" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="G27" t="s">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="H27" t="s">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="I27" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="L27" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
       <c r="M27" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="N27" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>416</v>
-      </c>
-      <c r="P27" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q27">
-        <v>493028098680</v>
+        <v>331</v>
       </c>
       <c r="R27" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
@@ -5146,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="W27" t="s">
         <v>50</v>
@@ -5155,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5164,75 +5152,75 @@
         <v>50</v>
       </c>
       <c r="AB27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC27" t="b">
         <v>1</v>
       </c>
       <c r="AD27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF27">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="B28" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="F28" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="G28" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="H28" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="I28" t="s">
-        <v>285</v>
+        <v>474</v>
       </c>
       <c r="J28" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="K28" t="s">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="L28" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="M28" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="N28" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O28" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="P28" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="Q28">
-        <v>4934125690080</v>
+        <v>490282691450</v>
       </c>
       <c r="R28" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="S28" t="b">
         <v>1</v>
@@ -5244,16 +5232,16 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>152</v>
+        <v>481</v>
       </c>
       <c r="W28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
       <c r="Y28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5271,66 +5259,60 @@
         <v>1</v>
       </c>
       <c r="AE28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF28">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>435</v>
+        <v>523</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>524</v>
       </c>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>525</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
+        <v>526</v>
       </c>
       <c r="E29" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="F29" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="G29" t="s">
-        <v>441</v>
+        <v>529</v>
       </c>
       <c r="H29" t="s">
-        <v>442</v>
+        <v>530</v>
       </c>
       <c r="I29" t="s">
-        <v>443</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
-        <v>444</v>
+        <v>531</v>
       </c>
       <c r="K29" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>445</v>
+        <v>532</v>
       </c>
       <c r="M29" t="s">
-        <v>157</v>
+        <v>533</v>
       </c>
       <c r="N29" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>446</v>
-      </c>
-      <c r="P29" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q29">
-        <v>4962326778510</v>
+        <v>534</v>
       </c>
       <c r="R29" t="s">
-        <v>448</v>
+        <v>535</v>
       </c>
       <c r="S29" t="b">
         <v>1</v>
@@ -5342,93 +5324,93 @@
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>449</v>
+        <v>536</v>
       </c>
       <c r="W29" t="s">
         <v>50</v>
       </c>
       <c r="X29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="s">
         <v>50</v>
       </c>
       <c r="AB29" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC29" t="b">
         <v>1</v>
       </c>
       <c r="AD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF29">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>699</v>
       </c>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>700</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
+        <v>701</v>
       </c>
       <c r="D30" t="s">
-        <v>453</v>
+        <v>702</v>
       </c>
       <c r="E30" t="s">
-        <v>454</v>
+        <v>703</v>
       </c>
       <c r="F30" t="s">
-        <v>455</v>
+        <v>704</v>
       </c>
       <c r="G30" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="H30" t="s">
-        <v>457</v>
+        <v>705</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>706</v>
       </c>
       <c r="J30" t="s">
-        <v>458</v>
+        <v>707</v>
       </c>
       <c r="K30" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>460</v>
+        <v>708</v>
       </c>
       <c r="M30" t="s">
-        <v>461</v>
+        <v>709</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="O30" t="s">
-        <v>462</v>
+        <v>710</v>
       </c>
       <c r="P30" t="s">
-        <v>463</v>
+        <v>711</v>
       </c>
       <c r="Q30">
-        <v>4917662021357</v>
+        <v>4935127181070</v>
       </c>
       <c r="R30" t="s">
-        <v>464</v>
+        <v>712</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
@@ -5440,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>465</v>
+        <v>713</v>
       </c>
       <c r="W30" t="s">
         <v>50</v>
@@ -5467,66 +5449,63 @@
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF30">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>474</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>475</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="M31" t="s">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="N31" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>478</v>
-      </c>
-      <c r="P31" t="s">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Q31">
-        <v>490282691450</v>
+        <v>4953122434806</v>
       </c>
       <c r="R31" t="s">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="S31" t="b">
         <v>1</v>
@@ -5538,10 +5517,10 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -5565,60 +5544,66 @@
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF31">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
-        <v>488</v>
+        <v>152</v>
       </c>
       <c r="H32" t="s">
-        <v>489</v>
+        <v>153</v>
       </c>
       <c r="I32" t="s">
-        <v>490</v>
+        <v>154</v>
       </c>
       <c r="J32" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s">
         <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>493</v>
+        <v>158</v>
+      </c>
+      <c r="P32" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q32">
+        <v>4927356588932</v>
       </c>
       <c r="R32" t="s">
-        <v>494</v>
+        <v>160</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
@@ -5630,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="V32" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="W32" t="s">
         <v>50</v>
@@ -5642,78 +5627,81 @@
         <v>1</v>
       </c>
       <c r="Z32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="s">
         <v>50</v>
       </c>
       <c r="AB32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC32" t="b">
         <v>1</v>
       </c>
       <c r="AD32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF32">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>496</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
       <c r="H33" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>503</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s">
-        <v>505</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O33" t="s">
-        <v>506</v>
+        <v>215</v>
+      </c>
+      <c r="P33" t="s">
+        <v>216</v>
       </c>
       <c r="Q33">
-        <v>18774067704</v>
+        <v>4966749999150</v>
       </c>
       <c r="R33" t="s">
-        <v>507</v>
+        <v>217</v>
       </c>
       <c r="S33" t="b">
         <v>1</v>
@@ -5725,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="s">
-        <v>508</v>
+        <v>218</v>
       </c>
       <c r="W33" t="s">
         <v>49</v>
@@ -5740,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB33" t="s">
         <v>49</v>
@@ -5749,69 +5737,63 @@
         <v>1</v>
       </c>
       <c r="AD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
         <v>5</v>
       </c>
       <c r="AF33">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>509</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
       <c r="D34" t="s">
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="E34" t="s">
-        <v>513</v>
+        <v>338</v>
       </c>
       <c r="F34" t="s">
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>515</v>
+        <v>340</v>
       </c>
       <c r="H34" t="s">
-        <v>516</v>
+        <v>341</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
-        <v>518</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>520</v>
-      </c>
-      <c r="P34" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q34">
-        <v>4973489688884</v>
+        <v>345</v>
       </c>
       <c r="R34" t="s">
-        <v>522</v>
+        <v>346</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
@@ -5823,26 +5805,26 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="W34" t="s">
+        <v>50</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB34" t="s">
         <v>49</v>
       </c>
-      <c r="X34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>67</v>
-      </c>
       <c r="AC34" t="b">
         <v>1</v>
       </c>
@@ -5850,60 +5832,66 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF34">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>523</v>
+        <v>420</v>
       </c>
       <c r="B35" t="s">
-        <v>524</v>
+        <v>421</v>
       </c>
       <c r="C35" t="s">
-        <v>525</v>
+        <v>422</v>
       </c>
       <c r="D35" t="s">
-        <v>526</v>
+        <v>423</v>
       </c>
       <c r="E35" t="s">
-        <v>527</v>
+        <v>424</v>
       </c>
       <c r="F35" t="s">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="G35" t="s">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="H35" t="s">
-        <v>530</v>
+        <v>427</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>531</v>
+        <v>428</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="L35" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="M35" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>534</v>
+        <v>432</v>
+      </c>
+      <c r="P35" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q35">
+        <v>4934125690080</v>
       </c>
       <c r="R35" t="s">
-        <v>535</v>
+        <v>434</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
@@ -5915,93 +5903,93 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>536</v>
+        <v>152</v>
       </c>
       <c r="W35" t="s">
         <v>50</v>
       </c>
       <c r="X35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="b">
         <v>1</v>
       </c>
       <c r="Z35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="s">
         <v>50</v>
       </c>
       <c r="AB35" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF35">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="B36" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C36" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="D36" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="E36" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="F36" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="G36" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="H36" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="I36" t="s">
-        <v>545</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L36" t="s">
-        <v>228</v>
+        <v>518</v>
       </c>
       <c r="M36" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="N36" t="s">
         <v>44</v>
       </c>
       <c r="O36" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="P36" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="Q36">
-        <v>4921115825773</v>
+        <v>4973489688884</v>
       </c>
       <c r="R36" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
@@ -6013,16 +6001,16 @@
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>551</v>
+        <v>419</v>
       </c>
       <c r="W36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
       </c>
       <c r="Y36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -6031,69 +6019,75 @@
         <v>50</v>
       </c>
       <c r="AB36" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC36" t="b">
         <v>1</v>
       </c>
       <c r="AD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF36">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>552</v>
+        <v>450</v>
       </c>
       <c r="B37" t="s">
-        <v>553</v>
+        <v>451</v>
       </c>
       <c r="C37" t="s">
-        <v>554</v>
+        <v>452</v>
       </c>
       <c r="D37" t="s">
-        <v>555</v>
+        <v>453</v>
       </c>
       <c r="E37" t="s">
-        <v>556</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>557</v>
+        <v>455</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>456</v>
       </c>
       <c r="H37" t="s">
-        <v>558</v>
+        <v>457</v>
       </c>
       <c r="I37" t="s">
-        <v>559</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
       <c r="K37" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="L37" t="s">
-        <v>562</v>
+        <v>460</v>
       </c>
       <c r="M37" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
       <c r="N37" t="s">
         <v>44</v>
       </c>
       <c r="O37" t="s">
-        <v>564</v>
+        <v>462</v>
+      </c>
+      <c r="P37" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q37">
+        <v>4917662021357</v>
       </c>
       <c r="R37" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
@@ -6105,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="W37" t="s">
         <v>50</v>
@@ -6123,7 +6117,7 @@
         <v>50</v>
       </c>
       <c r="AB37" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC37" t="b">
         <v>1</v>
@@ -6132,66 +6126,60 @@
         <v>1</v>
       </c>
       <c r="AE37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF37">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>566</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>568</v>
+        <v>484</v>
       </c>
       <c r="D38" t="s">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="E38" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="F38" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="G38" t="s">
-        <v>572</v>
+        <v>488</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>489</v>
       </c>
       <c r="I38" t="s">
-        <v>574</v>
+        <v>490</v>
       </c>
       <c r="J38" t="s">
-        <v>575</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s">
         <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="M38" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="N38" t="s">
         <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>578</v>
-      </c>
-      <c r="P38" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q38">
-        <v>437242214079</v>
+        <v>493</v>
       </c>
       <c r="R38" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="S38" t="b">
         <v>1</v>
@@ -6203,25 +6191,25 @@
         <v>1</v>
       </c>
       <c r="V38" t="s">
-        <v>581</v>
+        <v>114</v>
       </c>
       <c r="W38" t="s">
         <v>50</v>
       </c>
       <c r="X38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="b">
         <v>1</v>
       </c>
       <c r="Z38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="s">
         <v>50</v>
       </c>
       <c r="AB38" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC38" t="b">
         <v>1</v>
@@ -6230,60 +6218,63 @@
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF38">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>582</v>
+        <v>495</v>
       </c>
       <c r="B39" t="s">
-        <v>583</v>
+        <v>496</v>
       </c>
       <c r="C39" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="D39" t="s">
-        <v>585</v>
+        <v>498</v>
       </c>
       <c r="E39" t="s">
-        <v>586</v>
+        <v>499</v>
       </c>
       <c r="F39" t="s">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="G39" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
       <c r="H39" t="s">
-        <v>589</v>
+        <v>502</v>
       </c>
       <c r="I39" t="s">
-        <v>590</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>228</v>
+        <v>503</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="M39" t="s">
-        <v>592</v>
+        <v>505</v>
       </c>
       <c r="N39" t="s">
         <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>593</v>
+        <v>506</v>
+      </c>
+      <c r="Q39">
+        <v>18774067704</v>
       </c>
       <c r="R39" t="s">
-        <v>594</v>
+        <v>507</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
@@ -6295,16 +6286,16 @@
         <v>1</v>
       </c>
       <c r="V39" t="s">
-        <v>66</v>
+        <v>508</v>
       </c>
       <c r="W39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -6313,7 +6304,7 @@
         <v>50</v>
       </c>
       <c r="AB39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC39" t="b">
         <v>1</v>
@@ -6322,57 +6313,60 @@
         <v>1</v>
       </c>
       <c r="AE39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF39">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>596</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>597</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>599</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>601</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>602</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>603</v>
+        <v>59</v>
+      </c>
+      <c r="J40" t="s">
+        <v>60</v>
       </c>
       <c r="K40" t="s">
         <v>61</v>
       </c>
       <c r="L40" t="s">
-        <v>604</v>
+        <v>62</v>
       </c>
       <c r="M40" t="s">
-        <v>605</v>
+        <v>63</v>
       </c>
       <c r="N40" t="s">
         <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>606</v>
+        <v>64</v>
       </c>
       <c r="R40" t="s">
-        <v>607</v>
+        <v>65</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
@@ -6384,13 +6378,13 @@
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="W40" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="X40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="b">
         <v>1</v>
@@ -6402,7 +6396,7 @@
         <v>50</v>
       </c>
       <c r="AB40" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC40" t="b">
         <v>1</v>
@@ -6411,63 +6405,60 @@
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF40">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>608</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s">
-        <v>609</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>610</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>611</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>612</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>613</v>
+        <v>197</v>
       </c>
       <c r="G41" t="s">
-        <v>614</v>
+        <v>198</v>
       </c>
       <c r="H41" t="s">
-        <v>615</v>
+        <v>199</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" t="s">
-        <v>616</v>
+        <v>200</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="L41" t="s">
-        <v>617</v>
+        <v>201</v>
       </c>
       <c r="M41" t="s">
-        <v>618</v>
+        <v>44</v>
       </c>
       <c r="N41" t="s">
         <v>44</v>
       </c>
       <c r="O41" t="s">
-        <v>619</v>
+        <v>202</v>
       </c>
       <c r="P41" t="s">
-        <v>620</v>
+        <v>203</v>
       </c>
       <c r="R41" t="s">
-        <v>621</v>
+        <v>204</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
@@ -6479,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>581</v>
+        <v>114</v>
       </c>
       <c r="W41" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="X41" t="b">
         <v>1</v>
@@ -6506,161 +6497,164 @@
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF41">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="B42" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="C42" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="D42" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="E42" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="F42" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="G42" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="H42" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="I42" t="s">
-        <v>630</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="K42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" t="s">
+        <v>665</v>
+      </c>
+      <c r="M42" t="s">
+        <v>666</v>
+      </c>
+      <c r="N42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" t="s">
+        <v>667</v>
+      </c>
+      <c r="P42" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q42">
+        <v>4951185500</v>
+      </c>
+      <c r="R42" t="s">
+        <v>669</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>670</v>
+      </c>
+      <c r="W42" t="s">
+        <v>49</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
         <v>41</v>
-      </c>
-      <c r="L42" t="s">
-        <v>632</v>
-      </c>
-      <c r="M42" t="s">
-        <v>633</v>
-      </c>
-      <c r="N42" t="s">
-        <v>634</v>
-      </c>
-      <c r="O42" t="s">
-        <v>635</v>
-      </c>
-      <c r="P42" t="s">
-        <v>636</v>
-      </c>
-      <c r="R42" t="s">
-        <v>637</v>
-      </c>
-      <c r="S42" t="b">
-        <v>1</v>
-      </c>
-      <c r="T42" t="b">
-        <v>1</v>
-      </c>
-      <c r="U42" t="b">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
-        <v>638</v>
-      </c>
-      <c r="W42" t="s">
-        <v>50</v>
-      </c>
-      <c r="X42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>8</v>
-      </c>
-      <c r="AF42">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>639</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>641</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>642</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>643</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>644</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>645</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>646</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>647</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>648</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>649</v>
+        <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>650</v>
+        <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>651</v>
+        <v>43</v>
       </c>
       <c r="N43" t="s">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>652</v>
+        <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>653</v>
+        <v>46</v>
       </c>
       <c r="Q43">
-        <v>4973170480</v>
+        <v>49056131701788</v>
       </c>
       <c r="R43" t="s">
-        <v>654</v>
+        <v>47</v>
       </c>
       <c r="S43" t="b">
         <v>1</v>
@@ -6672,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>655</v>
+        <v>48</v>
       </c>
       <c r="W43" t="s">
         <v>49</v>
@@ -6681,84 +6675,84 @@
         <v>0</v>
       </c>
       <c r="Y43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB43" t="s">
         <v>49</v>
       </c>
       <c r="AC43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="b">
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AF43">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>435</v>
       </c>
       <c r="B44" t="s">
-        <v>657</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
-        <v>658</v>
+        <v>437</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
+        <v>438</v>
       </c>
       <c r="E44" t="s">
-        <v>660</v>
+        <v>439</v>
       </c>
       <c r="F44" t="s">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="G44" t="s">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="H44" t="s">
-        <v>663</v>
+        <v>442</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
+        <v>443</v>
       </c>
       <c r="J44" t="s">
-        <v>664</v>
+        <v>444</v>
       </c>
       <c r="K44" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="L44" t="s">
-        <v>665</v>
+        <v>445</v>
       </c>
       <c r="M44" t="s">
-        <v>666</v>
+        <v>157</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O44" t="s">
-        <v>667</v>
+        <v>446</v>
       </c>
       <c r="P44" t="s">
-        <v>668</v>
+        <v>447</v>
       </c>
       <c r="Q44">
-        <v>4951185500</v>
+        <v>4962326778510</v>
       </c>
       <c r="R44" t="s">
-        <v>669</v>
+        <v>448</v>
       </c>
       <c r="S44" t="b">
         <v>1</v>
@@ -6770,10 +6764,10 @@
         <v>1</v>
       </c>
       <c r="V44" t="s">
-        <v>670</v>
+        <v>449</v>
       </c>
       <c r="W44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -6800,36 +6794,36 @@
         <v>1</v>
       </c>
       <c r="AF44">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>671</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s">
-        <v>672</v>
+        <v>395</v>
       </c>
       <c r="C45" t="s">
-        <v>673</v>
+        <v>396</v>
       </c>
       <c r="D45" t="s">
-        <v>674</v>
+        <v>397</v>
       </c>
       <c r="E45" t="s">
-        <v>675</v>
+        <v>398</v>
       </c>
       <c r="F45" t="s">
-        <v>676</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>677</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>678</v>
+        <v>400</v>
       </c>
       <c r="I45" t="s">
-        <v>679</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
         <v>228</v>
@@ -6838,19 +6832,19 @@
         <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>680</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s">
-        <v>681</v>
+        <v>228</v>
       </c>
       <c r="N45" t="s">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>682</v>
+        <v>402</v>
       </c>
       <c r="R45" t="s">
-        <v>683</v>
+        <v>403</v>
       </c>
       <c r="S45" t="b">
         <v>1</v>
@@ -6862,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>551</v>
+        <v>114</v>
       </c>
       <c r="W45" t="s">
         <v>49</v>
@@ -6880,75 +6874,75 @@
         <v>50</v>
       </c>
       <c r="AB45" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF45">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>684</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s">
-        <v>685</v>
+        <v>405</v>
       </c>
       <c r="C46" t="s">
-        <v>686</v>
+        <v>406</v>
       </c>
       <c r="D46" t="s">
-        <v>687</v>
+        <v>407</v>
       </c>
       <c r="E46" t="s">
-        <v>688</v>
+        <v>408</v>
       </c>
       <c r="F46" t="s">
-        <v>689</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
-        <v>690</v>
+        <v>410</v>
       </c>
       <c r="H46" t="s">
-        <v>691</v>
+        <v>411</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>692</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>693</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>694</v>
+        <v>414</v>
       </c>
       <c r="M46" t="s">
-        <v>157</v>
+        <v>415</v>
       </c>
       <c r="N46" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="O46" t="s">
-        <v>695</v>
+        <v>416</v>
       </c>
       <c r="P46" t="s">
-        <v>696</v>
+        <v>417</v>
       </c>
       <c r="Q46">
-        <v>496201503100</v>
+        <v>493028098680</v>
       </c>
       <c r="R46" t="s">
-        <v>697</v>
+        <v>418</v>
       </c>
       <c r="S46" t="b">
         <v>1</v>
@@ -6960,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>698</v>
+        <v>419</v>
       </c>
       <c r="W46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -6978,75 +6972,72 @@
         <v>50</v>
       </c>
       <c r="AB46" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AC46" t="b">
         <v>1</v>
       </c>
       <c r="AD46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF46">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>699</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s">
-        <v>700</v>
+        <v>381</v>
       </c>
       <c r="C47" t="s">
-        <v>701</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
-        <v>702</v>
+        <v>383</v>
       </c>
       <c r="E47" t="s">
-        <v>703</v>
+        <v>384</v>
       </c>
       <c r="F47" t="s">
-        <v>704</v>
+        <v>385</v>
       </c>
       <c r="G47" t="s">
-        <v>515</v>
+        <v>386</v>
       </c>
       <c r="H47" t="s">
-        <v>705</v>
+        <v>387</v>
       </c>
       <c r="I47" t="s">
-        <v>706</v>
-      </c>
-      <c r="J47" t="s">
-        <v>707</v>
+        <v>356</v>
       </c>
       <c r="K47" t="s">
         <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>708</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s">
-        <v>709</v>
+        <v>389</v>
       </c>
       <c r="N47" t="s">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s">
-        <v>710</v>
+        <v>391</v>
       </c>
       <c r="P47" t="s">
-        <v>711</v>
+        <v>392</v>
       </c>
       <c r="Q47">
-        <v>4935127181070</v>
+        <v>49030959993910</v>
       </c>
       <c r="R47" t="s">
-        <v>712</v>
+        <v>393</v>
       </c>
       <c r="S47" t="b">
         <v>1</v>
@@ -7058,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>713</v>
+        <v>379</v>
       </c>
       <c r="W47" t="s">
         <v>50</v>
@@ -7076,66 +7067,75 @@
         <v>50</v>
       </c>
       <c r="AB47" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC47" t="b">
         <v>1</v>
       </c>
       <c r="AD47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF47">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>714</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>715</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>716</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>717</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>718</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>719</v>
+        <v>224</v>
       </c>
       <c r="G48" t="s">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>721</v>
+        <v>226</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>227</v>
+      </c>
+      <c r="J48" t="s">
+        <v>228</v>
       </c>
       <c r="K48" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="L48" t="s">
-        <v>722</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s">
-        <v>723</v>
+        <v>230</v>
       </c>
       <c r="N48" t="s">
         <v>44</v>
       </c>
       <c r="O48" t="s">
-        <v>724</v>
+        <v>231</v>
+      </c>
+      <c r="P48" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q48">
+        <v>4934339179998</v>
       </c>
       <c r="R48" t="s">
-        <v>725</v>
+        <v>233</v>
       </c>
       <c r="S48" t="b">
         <v>1</v>
@@ -7147,16 +7147,16 @@
         <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>726</v>
+        <v>66</v>
       </c>
       <c r="W48" t="s">
         <v>50</v>
       </c>
       <c r="X48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>50</v>
       </c>
       <c r="AB48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC48" t="b">
         <v>1</v>
@@ -7174,13 +7174,16 @@
         <v>1</v>
       </c>
       <c r="AE48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF48">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF48">
+    <sortCondition ref="AF1:AF48"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/kgs_001_ER47_20250617.xlsx
+++ b/data/kgs_001_ER47_20250617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmiliosRichards\Projects\Sales_Prompt_Pipeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D7CFA-C677-4C97-A119-9E15C0A6586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FAF027-5C7E-48EE-BDFC-B84DF6D7462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,11 +2270,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2579,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,7 +2603,7 @@
     <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="3" customWidth="1"/>
     <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -2666,7 +2670,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -2764,7 +2768,7 @@
       <c r="P2" t="s">
         <v>128</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>4934125364700</v>
       </c>
       <c r="R2" t="s">
@@ -2862,7 +2866,7 @@
       <c r="P3" t="s">
         <v>174</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>4968138752068</v>
       </c>
       <c r="R3" t="s">
@@ -3052,7 +3056,7 @@
       <c r="P5" t="s">
         <v>260</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>4901734986619</v>
       </c>
       <c r="R5" t="s">
@@ -3147,7 +3151,7 @@
       <c r="O6" t="s">
         <v>275</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>4932221097343</v>
       </c>
       <c r="R6" t="s">
@@ -3616,7 +3620,7 @@
       <c r="P11" t="s">
         <v>549</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>4921115825773</v>
       </c>
       <c r="R11" t="s">
@@ -3714,7 +3718,7 @@
       <c r="P12" t="s">
         <v>579</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>437242214079</v>
       </c>
       <c r="R12" t="s">
@@ -4275,7 +4279,7 @@
       <c r="P18" t="s">
         <v>653</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>4973170480</v>
       </c>
       <c r="R18" t="s">
@@ -4465,7 +4469,7 @@
       <c r="P20" t="s">
         <v>696</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>496201503100</v>
       </c>
       <c r="R20" t="s">
@@ -4744,7 +4748,7 @@
       <c r="P23" t="s">
         <v>112</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="3">
         <v>4970717501723</v>
       </c>
       <c r="R23" t="s">
@@ -4937,7 +4941,7 @@
       <c r="P25" t="s">
         <v>189</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>4930202380920</v>
       </c>
       <c r="R25" t="s">
@@ -5216,7 +5220,7 @@
       <c r="P28" t="s">
         <v>479</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="3">
         <v>490282691450</v>
       </c>
       <c r="R28" t="s">
@@ -5406,7 +5410,7 @@
       <c r="P30" t="s">
         <v>711</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="3">
         <v>4935127181070</v>
       </c>
       <c r="R30" t="s">
@@ -5501,7 +5505,7 @@
       <c r="O31" t="s">
         <v>79</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="3">
         <v>4953122434806</v>
       </c>
       <c r="R31" t="s">
@@ -5599,7 +5603,7 @@
       <c r="P32" t="s">
         <v>159</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="3">
         <v>4927356588932</v>
       </c>
       <c r="R32" t="s">
@@ -5697,7 +5701,7 @@
       <c r="P33" t="s">
         <v>216</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="3">
         <v>4966749999150</v>
       </c>
       <c r="R33" t="s">
@@ -5887,7 +5891,7 @@
       <c r="P35" t="s">
         <v>433</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="3">
         <v>4934125690080</v>
       </c>
       <c r="R35" t="s">
@@ -5985,7 +5989,7 @@
       <c r="P36" t="s">
         <v>521</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="3">
         <v>4973489688884</v>
       </c>
       <c r="R36" t="s">
@@ -6083,7 +6087,7 @@
       <c r="P37" t="s">
         <v>463</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="3">
         <v>4917662021357</v>
       </c>
       <c r="R37" t="s">
@@ -6270,7 +6274,7 @@
       <c r="O39" t="s">
         <v>506</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="3">
         <v>18774067704</v>
       </c>
       <c r="R39" t="s">
@@ -6552,7 +6556,7 @@
       <c r="P42" t="s">
         <v>668</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="3">
         <v>4951185500</v>
       </c>
       <c r="R42" t="s">
@@ -6650,7 +6654,7 @@
       <c r="P43" t="s">
         <v>46</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="3">
         <v>49056131701788</v>
       </c>
       <c r="R43" t="s">
@@ -6748,7 +6752,7 @@
       <c r="P44" t="s">
         <v>447</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="3">
         <v>4962326778510</v>
       </c>
       <c r="R44" t="s">
@@ -6938,7 +6942,7 @@
       <c r="P46" t="s">
         <v>417</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="3">
         <v>493028098680</v>
       </c>
       <c r="R46" t="s">
@@ -7033,7 +7037,7 @@
       <c r="P47" t="s">
         <v>392</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="3">
         <v>49030959993910</v>
       </c>
       <c r="R47" t="s">
@@ -7131,7 +7135,7 @@
       <c r="P48" t="s">
         <v>232</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="3">
         <v>4934339179998</v>
       </c>
       <c r="R48" t="s">
